--- a/alkalomadtan/Meglátogatott oldalak.xlsx
+++ b/alkalomadtan/Meglátogatott oldalak.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kemen\Documents\Projekt munka\alkalomadtanDjango\alkalomadtan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEFF3C8-5A79-4193-95A6-AA3B9C596CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FD5240-662B-491C-A5EC-B7A7406DB61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{82E6B7B6-4FFA-4380-AFE2-CBDAB5E2CA06}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82E6B7B6-4FFA-4380-AFE2-CBDAB5E2CA06}"/>
   </bookViews>
   <sheets>
     <sheet name="Vince - oldalak" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Idő</t>
   </si>
@@ -50,13 +50,28 @@
   </si>
   <si>
     <t>Indok</t>
+  </si>
+  <si>
+    <t>Pythonprograming</t>
+  </si>
+  <si>
+    <t>https://pythonprogramming.net/django-web-development-python-tutorial/</t>
+  </si>
+  <si>
+    <t>Gyors Django emlékezdető</t>
+  </si>
+  <si>
+    <t>https://pythonprogramming.net/views-templates-django-tutorial/</t>
+  </si>
+  <si>
+    <t>Django Template és View</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +82,24 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -92,14 +125,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -412,19 +451,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E165A1-5B74-4ECB-9AE0-9571F3E20511}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -437,9 +479,140 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>44857</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>44857</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{0AC9FB88-F9E2-4F9D-A009-CDA88707C189}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{98C5116B-6902-49F9-86A7-7E49ABB63124}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -447,7 +620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9322769F-7665-432C-BD1A-518297B7FB55}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
